--- a/biology/Zoologie/Diplura_rodrigoi/Diplura_rodrigoi.xlsx
+++ b/biology/Zoologie/Diplura_rodrigoi/Diplura_rodrigoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplura rodrigoi est une espèce d'araignées mygalomorphes de la famille des Dipluridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplura rodrigoi est une espèce d'araignées mygalomorphes de la famille des Dipluridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États de Rio de Janeiro, de São Paulo, d'Espírito Santo, du Minas Gerais et de Goiás et dans le District fédéral[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Rio de Janeiro, de São Paulo, d'Espírito Santo, du Minas Gerais et de Goiás et dans le District fédéral.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 20,0 mm et la femelle paratype 26,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 20,0 mm et la femelle paratype 26,4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rodrigo de Cerqueira da Costa[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rodrigo de Cerqueira da Costa.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pedroso, Giupponi &amp; Baptista, 2018 : Comments on the genus Diplura C. L. Koch, 1850, with description of two new species (Araneae: Mygalomorphae: Dipluridae). ZooKeys, no 771, p. 57-71 (texte intégral).</t>
         </is>
